--- a/ProjectPlanning/ProjectSchedule.xlsx
+++ b/ProjectPlanning/ProjectSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikla\Source\Repos\Bedbug\ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269C204-6BF5-4F23-BE8E-0F9ED429611E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC9899-907E-4408-896F-5E9D98BF23FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Rick to provide update of  shared version of document. Feel free to add anything pertinent.</t>
+  </si>
+  <si>
+    <t>Roadmap-Future features</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,6 +1341,69 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1353,62 +1419,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2163,24 +2175,24 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22:AO22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.26171875" style="56" customWidth="1"/>
-    <col min="2" max="2" width="41.3125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.15625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.578125" style="4" customWidth="1"/>
-    <col min="9" max="21" width="6.734375" style="1" customWidth="1"/>
-    <col min="22" max="28" width="2.734375" style="1"/>
-    <col min="41" max="41" width="9.578125" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="56" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.58203125" style="4" customWidth="1"/>
+    <col min="9" max="21" width="6.75" style="1" customWidth="1"/>
+    <col min="22" max="28" width="2.75" style="1"/>
+    <col min="41" max="41" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="2">
+    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2203,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:41" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="2">
+    <row r="2" spans="1:41" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B2" s="63" t="s">
         <v>44</v>
       </c>
@@ -2206,64 +2218,64 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="80" t="s">
+    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="84"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="88"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="88"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="90"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="89" t="s">
+      <c r="AB3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="93"/>
       <c r="AI3" s="16"/>
-      <c r="AJ3" s="86" t="s">
+      <c r="AJ3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-    </row>
-    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+    </row>
+    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57"/>
       <c r="B4" s="45" t="s">
         <v>24</v>
@@ -2296,7 +2308,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -2362,8 +2374,8 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -2423,32 +2435,32 @@
       <c r="T6" s="23">
         <v>43430</v>
       </c>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-    </row>
-    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="73"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="98"/>
+    </row>
+    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="94"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
@@ -2480,31 +2492,31 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-    </row>
-    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+    </row>
+    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -2536,29 +2548,29 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-    </row>
-    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U8" s="76"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+    </row>
+    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>30</v>
       </c>
@@ -2593,29 +2605,29 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-    </row>
-    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U9" s="76"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+    </row>
+    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
@@ -2647,29 +2659,29 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-    </row>
-    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+    </row>
+    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>30</v>
       </c>
@@ -2704,31 +2716,31 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-    </row>
-    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+    </row>
+    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
@@ -2763,35 +2775,35 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-    </row>
-    <row r="13" spans="1:41" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+    </row>
+    <row r="13" spans="1:41" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="30">
@@ -2824,31 +2836,31 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="74" t="s">
+      <c r="U13" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
-    </row>
-    <row r="14" spans="1:41" ht="58.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+    </row>
+    <row r="14" spans="1:41" ht="58.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65" t="s">
         <v>34</v>
       </c>
@@ -2885,35 +2897,35 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="74" t="s">
+      <c r="U14" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-    </row>
-    <row r="15" spans="1:41" ht="75.3" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="96"/>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="96"/>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="96"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="96"/>
+      <c r="AO14" s="96"/>
+    </row>
+    <row r="15" spans="1:41" ht="75.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="75" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="30">
@@ -2946,31 +2958,31 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="74" t="s">
+      <c r="U15" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-    </row>
-    <row r="16" spans="1:41" ht="42.3" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+    </row>
+    <row r="16" spans="1:41" ht="42.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65" t="s">
         <v>34</v>
       </c>
@@ -3007,31 +3019,31 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
-      <c r="U16" s="74" t="s">
+      <c r="U16" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-    </row>
-    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+    </row>
+    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
@@ -3063,31 +3075,31 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="92" t="s">
+      <c r="U17" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-    </row>
-    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+    </row>
+    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -3122,31 +3134,31 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="92" t="s">
+      <c r="U18" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-    </row>
-    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+    </row>
+    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
@@ -3178,29 +3190,29 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-    </row>
-    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="U19" s="76"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+    </row>
+    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A20" s="56" t="s">
         <v>30</v>
       </c>
@@ -3235,40 +3247,37 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-    </row>
-    <row r="21" spans="1:41" ht="44.7" customHeight="1" x14ac:dyDescent="1.95">
-      <c r="A21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="33">
-        <v>10</v>
+      <c r="U20" s="76"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+    </row>
+    <row r="21" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="B21" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="30">
+        <v>11</v>
       </c>
       <c r="D21" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="30">
         <v>11</v>
@@ -3276,9 +3285,7 @@
       <c r="F21" s="30">
         <v>2</v>
       </c>
-      <c r="G21" s="31">
-        <v>0</v>
-      </c>
+      <c r="G21" s="31"/>
       <c r="H21" s="70"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
@@ -3292,40 +3299,51 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-    </row>
-    <row r="22" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B22" s="34"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+    </row>
+    <row r="22" spans="1:41" ht="44.75" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="A22" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="33">
+        <v>10</v>
+      </c>
+      <c r="D22" s="30">
+        <v>3</v>
+      </c>
+      <c r="E22" s="30">
+        <v>11</v>
+      </c>
+      <c r="F22" s="30">
+        <v>2</v>
+      </c>
       <c r="G22" s="31">
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -3338,29 +3356,31 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-    </row>
-    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U22" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+    </row>
+    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="34"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -3382,29 +3402,29 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-    </row>
-    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U23" s="76"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+    </row>
+    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="34"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -3426,29 +3446,29 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
-    </row>
-    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U24" s="76"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+    </row>
+    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="34"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -3470,29 +3490,29 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-    </row>
-    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U25" s="76"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+    </row>
+    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="34"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -3514,29 +3534,29 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-    </row>
-    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="77"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="77"/>
+      <c r="AK26" s="77"/>
+      <c r="AL26" s="77"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="77"/>
+      <c r="AO26" s="77"/>
+    </row>
+    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -3558,29 +3578,29 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-    </row>
-    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U27" s="76"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="77"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="77"/>
+    </row>
+    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -3602,29 +3622,29 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-    </row>
-    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U28" s="76"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="77"/>
+    </row>
+    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="34"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -3646,29 +3666,29 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-    </row>
-    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U29" s="76"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+    </row>
+    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="34"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -3690,29 +3710,29 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-    </row>
-    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U30" s="76"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="77"/>
+    </row>
+    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -3734,29 +3754,29 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-    </row>
-    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U31" s="76"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="77"/>
+    </row>
+    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="34"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -3778,29 +3798,29 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-    </row>
-    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U32" s="76"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
+      <c r="AO32" s="77"/>
+    </row>
+    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="34"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -3822,29 +3842,29 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-    </row>
-    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U33" s="76"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="77"/>
+    </row>
+    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="34"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -3866,29 +3886,29 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="79"/>
-      <c r="AM34" s="79"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-    </row>
-    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U34" s="76"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="77"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="77"/>
+    </row>
+    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="34"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -3897,7 +3917,7 @@
       <c r="G35" s="31">
         <v>0</v>
       </c>
-      <c r="H35" s="31"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -3910,38 +3930,38 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-    </row>
-    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37">
+      <c r="U35" s="76"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="77"/>
+      <c r="AH35" s="77"/>
+      <c r="AI35" s="77"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="77"/>
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="77"/>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="77"/>
+    </row>
+    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="34"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31">
         <v>0</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="24"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -3976,35 +3996,52 @@
       <c r="AN36" s="49"/>
       <c r="AO36" s="49"/>
     </row>
+    <row r="37" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="U34:AO34"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="U32:AO32"/>
-    <mergeCell ref="U33:AO33"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="U18:AO18"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="U17:AO17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="U13:AO13"/>
     <mergeCell ref="U14:AO14"/>
@@ -4014,8 +4051,35 @@
     <mergeCell ref="U7:AO7"/>
     <mergeCell ref="U8:AO8"/>
     <mergeCell ref="U9:AO9"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="U17:AO17"/>
+    <mergeCell ref="U18:AO18"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="U35:AO35"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="U32:AO32"/>
+    <mergeCell ref="U33:AO33"/>
+    <mergeCell ref="U34:AO34"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7:U7 I8:T34 I35:AO36">
+  <conditionalFormatting sqref="I7:U7 I8:T35 I36:AO37">
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4041,7 +4105,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:AO37">
+  <conditionalFormatting sqref="B38:AO38">
     <cfRule type="expression" dxfId="25" priority="34">
       <formula>TRUE</formula>
     </cfRule>
@@ -4051,7 +4115,7 @@
       <formula>I$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U12 U17:U34">
+  <conditionalFormatting sqref="U8:U12 U17:U35">
     <cfRule type="expression" dxfId="23" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4171,59 +4235,59 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>20</v>
       </c>

--- a/ProjectPlanning/ProjectSchedule.xlsx
+++ b/ProjectPlanning/ProjectSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikla\Source\Repos\Bedbug\ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC9899-907E-4408-896F-5E9D98BF23FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269C204-6BF5-4F23-BE8E-0F9ED429611E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -451,9 +451,6 @@
   </si>
   <si>
     <t>Rick to provide update of  shared version of document. Feel free to add anything pertinent.</t>
-  </si>
-  <si>
-    <t>Roadmap-Future features</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1118,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,86 +1338,77 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2175,24 +2163,24 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22:AO22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AX8" sqref="AX8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="56" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.1640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.58203125" style="4" customWidth="1"/>
-    <col min="9" max="21" width="6.75" style="1" customWidth="1"/>
-    <col min="22" max="28" width="2.75" style="1"/>
-    <col min="41" max="41" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" width="6.26171875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="41.3125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="8.15625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.578125" style="4" customWidth="1"/>
+    <col min="9" max="21" width="6.734375" style="1" customWidth="1"/>
+    <col min="22" max="28" width="2.734375" style="1"/>
+    <col min="41" max="41" width="9.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="2">
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
@@ -2203,7 +2191,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:41" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="2" spans="1:41" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="2">
       <c r="B2" s="63" t="s">
         <v>44</v>
       </c>
@@ -2218,64 +2206,64 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="88"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="84"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="80" t="s">
+      <c r="W3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="90"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="88"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="91" t="s">
+      <c r="AB3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="93"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="91"/>
       <c r="AI3" s="16"/>
-      <c r="AJ3" s="80" t="s">
+      <c r="AJ3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-    </row>
-    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+    </row>
+    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57"/>
       <c r="B4" s="45" t="s">
         <v>24</v>
@@ -2308,7 +2296,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -2374,8 +2362,8 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -2435,32 +2423,32 @@
       <c r="T6" s="23">
         <v>43430</v>
       </c>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-    </row>
-    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+    </row>
+    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="73"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
@@ -2492,31 +2480,31 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="76" t="s">
+      <c r="U7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-    </row>
-    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+    </row>
+    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -2548,29 +2536,29 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-    </row>
-    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U8" s="78"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+    </row>
+    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="56" t="s">
         <v>30</v>
       </c>
@@ -2605,29 +2593,29 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-    </row>
-    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+    </row>
+    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
@@ -2659,29 +2647,29 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-    </row>
-    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+    </row>
+    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="56" t="s">
         <v>30</v>
       </c>
@@ -2716,31 +2704,31 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="76" t="s">
+      <c r="U11" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-    </row>
-    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+    </row>
+    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
@@ -2775,35 +2763,35 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-    </row>
-    <row r="13" spans="1:41" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+    </row>
+    <row r="13" spans="1:41" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="30">
@@ -2836,31 +2824,31 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="95" t="s">
+      <c r="U13" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-    </row>
-    <row r="14" spans="1:41" ht="58.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="75"/>
+    </row>
+    <row r="14" spans="1:41" ht="58.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="65" t="s">
         <v>34</v>
       </c>
@@ -2897,35 +2885,35 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="95" t="s">
+      <c r="U14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-    </row>
-    <row r="15" spans="1:41" ht="75.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+    </row>
+    <row r="15" spans="1:41" ht="75.3" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="94" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="30">
@@ -2958,31 +2946,31 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="95" t="s">
+      <c r="U15" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-    </row>
-    <row r="16" spans="1:41" ht="42.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+    </row>
+    <row r="16" spans="1:41" ht="42.3" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="65" t="s">
         <v>34</v>
       </c>
@@ -3019,31 +3007,31 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
-      <c r="U16" s="95" t="s">
+      <c r="U16" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-    </row>
-    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+    </row>
+    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.95">
       <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
@@ -3075,31 +3063,31 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="78" t="s">
+      <c r="U17" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-    </row>
-    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+    </row>
+    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -3134,31 +3122,31 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="78" t="s">
+      <c r="U18" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-    </row>
-    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+    </row>
+    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
@@ -3190,29 +3178,29 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-    </row>
-    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+      <c r="U19" s="78"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+    </row>
+    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A20" s="56" t="s">
         <v>30</v>
       </c>
@@ -3247,37 +3235,40 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-    </row>
-    <row r="21" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B21" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="30">
-        <v>11</v>
+      <c r="U20" s="78"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+    </row>
+    <row r="21" spans="1:41" ht="44.7" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="A21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="33">
+        <v>10</v>
       </c>
       <c r="D21" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="30">
         <v>11</v>
@@ -3285,7 +3276,9 @@
       <c r="F21" s="30">
         <v>2</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
       <c r="H21" s="70"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
@@ -3299,51 +3292,40 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-    </row>
-    <row r="22" spans="1:41" ht="44.75" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A22" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="33">
-        <v>10</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30">
-        <v>11</v>
-      </c>
-      <c r="F22" s="30">
-        <v>2</v>
-      </c>
+      <c r="U21" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+    </row>
+    <row r="22" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B22" s="34"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="31">
         <v>0</v>
       </c>
-      <c r="H22" s="70"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -3356,31 +3338,29 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-    </row>
-    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+    </row>
+    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B23" s="34"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -3402,29 +3382,29 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-    </row>
-    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+    </row>
+    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B24" s="34"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -3446,29 +3426,29 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-    </row>
-    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U24" s="78"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+    </row>
+    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B25" s="34"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -3490,29 +3470,29 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-    </row>
-    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U25" s="78"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+    </row>
+    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B26" s="34"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -3534,29 +3514,29 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="77"/>
-      <c r="AK26" s="77"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
-    </row>
-    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U26" s="78"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+    </row>
+    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -3578,29 +3558,29 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="77"/>
-      <c r="AK27" s="77"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="77"/>
-    </row>
-    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+    </row>
+    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B28" s="34"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -3622,29 +3602,29 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="77"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="77"/>
-      <c r="AK28" s="77"/>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="77"/>
-    </row>
-    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="78"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+    </row>
+    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B29" s="34"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -3666,29 +3646,29 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-    </row>
-    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U29" s="78"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+    </row>
+    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B30" s="34"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -3710,29 +3690,29 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="77"/>
-      <c r="AK30" s="77"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-    </row>
-    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U30" s="78"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+    </row>
+    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -3754,29 +3734,29 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-    </row>
-    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U31" s="78"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+    </row>
+    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B32" s="34"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -3798,29 +3778,29 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="77"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="77"/>
-      <c r="AO32" s="77"/>
-    </row>
-    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U32" s="78"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+    </row>
+    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B33" s="34"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -3842,29 +3822,29 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="77"/>
-    </row>
-    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U33" s="78"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="79"/>
+      <c r="AM33" s="79"/>
+      <c r="AN33" s="79"/>
+      <c r="AO33" s="79"/>
+    </row>
+    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B34" s="34"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -3886,29 +3866,29 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="77"/>
-      <c r="AH34" s="77"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="77"/>
-    </row>
-    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U34" s="78"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="79"/>
+      <c r="AM34" s="79"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+    </row>
+    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B35" s="34"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -3917,7 +3897,7 @@
       <c r="G35" s="31">
         <v>0</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -3930,38 +3910,38 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="77"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="77"/>
-      <c r="AI35" s="77"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="77"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="77"/>
-    </row>
-    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="34"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31">
+      <c r="U35" s="47"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+    </row>
+    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37">
         <v>0</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="24"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -3996,52 +3976,35 @@
       <c r="AN36" s="49"/>
       <c r="AO36" s="49"/>
     </row>
-    <row r="37" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="U34:AO34"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="U32:AO32"/>
+    <mergeCell ref="U33:AO33"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="U18:AO18"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="U17:AO17"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="U13:AO13"/>
     <mergeCell ref="U14:AO14"/>
@@ -4051,35 +4014,8 @@
     <mergeCell ref="U7:AO7"/>
     <mergeCell ref="U8:AO8"/>
     <mergeCell ref="U9:AO9"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="U17:AO17"/>
-    <mergeCell ref="U18:AO18"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="U35:AO35"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="U32:AO32"/>
-    <mergeCell ref="U33:AO33"/>
-    <mergeCell ref="U34:AO34"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7:U7 I8:T35 I36:AO37">
+  <conditionalFormatting sqref="I7:U7 I8:T34 I35:AO36">
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4105,7 +4041,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:AO38">
+  <conditionalFormatting sqref="B37:AO37">
     <cfRule type="expression" dxfId="25" priority="34">
       <formula>TRUE</formula>
     </cfRule>
@@ -4115,7 +4051,7 @@
       <formula>I$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U12 U17:U35">
+  <conditionalFormatting sqref="U8:U12 U17:U34">
     <cfRule type="expression" dxfId="23" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4235,59 +4171,59 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17" t="s">
         <v>20</v>
       </c>

--- a/ProjectPlanning/ProjectSchedule.xlsx
+++ b/ProjectPlanning/ProjectSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikla\Source\Repos\Bedbug\ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269C204-6BF5-4F23-BE8E-0F9ED429611E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070486F4-4BE2-4ACF-9CA1-7AED01D547F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,6 +1338,63 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1352,63 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2165,8 +2165,8 @@
   </sheetPr>
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2207,41 +2207,41 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="84"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="86"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
       <c r="Z3" s="88"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="89" t="s">
@@ -2254,14 +2254,14 @@
       <c r="AG3" s="90"/>
       <c r="AH3" s="91"/>
       <c r="AI3" s="16"/>
-      <c r="AJ3" s="86" t="s">
+      <c r="AJ3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
     </row>
     <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57"/>
@@ -2363,7 +2363,7 @@
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -2423,32 +2423,32 @@
       <c r="T6" s="23">
         <v>43430</v>
       </c>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
     </row>
     <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="73"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
@@ -2480,29 +2480,29 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
     </row>
     <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="29" t="s">
@@ -2536,27 +2536,27 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
     </row>
     <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="56" t="s">
@@ -2593,27 +2593,27 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
     </row>
     <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="29" t="s">
@@ -2647,27 +2647,27 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
     </row>
     <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="56" t="s">
@@ -2704,29 +2704,29 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
     </row>
     <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A12" s="56" t="s">
@@ -2763,35 +2763,35 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
     </row>
     <row r="13" spans="1:41" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="30">
@@ -2824,29 +2824,29 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="74" t="s">
+      <c r="U13" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
     </row>
     <row r="14" spans="1:41" ht="58.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="65" t="s">
@@ -2885,35 +2885,35 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="74" t="s">
+      <c r="U14" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
     </row>
     <row r="15" spans="1:41" ht="75.3" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="30">
@@ -2946,29 +2946,29 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="74" t="s">
+      <c r="U15" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
     </row>
     <row r="16" spans="1:41" ht="42.3" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="65" t="s">
@@ -3007,29 +3007,29 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
-      <c r="U16" s="74" t="s">
+      <c r="U16" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
     </row>
     <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.95">
       <c r="B17" s="29" t="s">
@@ -3063,29 +3063,29 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="92" t="s">
+      <c r="U17" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
     </row>
     <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A18" s="56" t="s">
@@ -3122,29 +3122,29 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="92" t="s">
+      <c r="U18" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
     </row>
     <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="B19" s="29" t="s">
@@ -3178,27 +3178,27 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="75"/>
     </row>
     <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A20" s="56" t="s">
@@ -3235,27 +3235,27 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="75"/>
     </row>
     <row r="21" spans="1:41" ht="44.7" customHeight="1" x14ac:dyDescent="1.95">
       <c r="A21" s="56" t="s">
@@ -3292,29 +3292,29 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="78" t="s">
+      <c r="U21" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="75"/>
     </row>
     <row r="22" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B22" s="34"/>
@@ -3338,27 +3338,27 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
     </row>
     <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B23" s="34"/>
@@ -3382,27 +3382,27 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
     </row>
     <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B24" s="34"/>
@@ -3426,27 +3426,27 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
     </row>
     <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B25" s="34"/>
@@ -3470,27 +3470,27 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="75"/>
     </row>
     <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B26" s="34"/>
@@ -3514,27 +3514,27 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="75"/>
     </row>
     <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B27" s="34"/>
@@ -3558,27 +3558,27 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="75"/>
     </row>
     <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B28" s="34"/>
@@ -3602,27 +3602,27 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="75"/>
     </row>
     <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B29" s="34"/>
@@ -3646,27 +3646,27 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
     </row>
     <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B30" s="34"/>
@@ -3690,27 +3690,27 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="75"/>
     </row>
     <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B31" s="34"/>
@@ -3734,27 +3734,27 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="75"/>
     </row>
     <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B32" s="34"/>
@@ -3778,27 +3778,27 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75"/>
     </row>
     <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B33" s="34"/>
@@ -3822,27 +3822,27 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="75"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="75"/>
     </row>
     <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B34" s="34"/>
@@ -3866,27 +3866,27 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="79"/>
-      <c r="AM34" s="79"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="75"/>
     </row>
     <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B35" s="34"/>
@@ -3978,33 +3978,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="U34:AO34"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="U32:AO32"/>
-    <mergeCell ref="U33:AO33"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="U18:AO18"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="U17:AO17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="U13:AO13"/>
     <mergeCell ref="U14:AO14"/>
@@ -4014,6 +3987,33 @@
     <mergeCell ref="U7:AO7"/>
     <mergeCell ref="U8:AO8"/>
     <mergeCell ref="U9:AO9"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="U17:AO17"/>
+    <mergeCell ref="U18:AO18"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="U34:AO34"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="U32:AO32"/>
+    <mergeCell ref="U33:AO33"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:U7 I8:T34 I35:AO36">
     <cfRule type="expression" dxfId="33" priority="33">

--- a/ProjectPlanning/ProjectSchedule.xlsx
+++ b/ProjectPlanning/ProjectSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikla\Source\Repos\Bedbug\ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070486F4-4BE2-4ACF-9CA1-7AED01D547F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1185EE-78D0-4F7F-ABB0-2223509D7634}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -1341,74 +1341,74 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2165,22 +2165,22 @@
   </sheetPr>
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9:AO9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.26171875" style="56" customWidth="1"/>
-    <col min="2" max="2" width="41.3125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.15625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.578125" style="4" customWidth="1"/>
-    <col min="9" max="21" width="6.734375" style="1" customWidth="1"/>
-    <col min="22" max="28" width="2.734375" style="1"/>
-    <col min="41" max="41" width="9.578125" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="56" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.58203125" style="4" customWidth="1"/>
+    <col min="9" max="21" width="6.75" style="1" customWidth="1"/>
+    <col min="22" max="28" width="2.75" style="1"/>
+    <col min="41" max="41" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="2">
+    <row r="1" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:41" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="2">
+    <row r="2" spans="1:41" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B2" s="63" t="s">
         <v>44</v>
       </c>
@@ -2206,64 +2206,64 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="1:41" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="85"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="89"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="89" t="s">
+      <c r="AB3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
       <c r="AI3" s="16"/>
-      <c r="AJ3" s="78" t="s">
+      <c r="AJ3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-    </row>
-    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+    </row>
+    <row r="4" spans="1:41" s="8" customFormat="1" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57"/>
       <c r="B4" s="45" t="s">
         <v>24</v>
@@ -2296,7 +2296,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -2362,8 +2362,8 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -2423,32 +2423,32 @@
       <c r="T6" s="23">
         <v>43430</v>
       </c>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-    </row>
-    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="92"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+    </row>
+    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="74"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
@@ -2480,31 +2480,31 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="74" t="s">
+      <c r="U7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-    </row>
-    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="80"/>
+    </row>
+    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -2536,29 +2536,29 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-    </row>
-    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U8" s="79"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+    </row>
+    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>30</v>
       </c>
@@ -2593,29 +2593,29 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-    </row>
-    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U9" s="79"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+    </row>
+    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
@@ -2647,29 +2647,29 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-    </row>
-    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="U10" s="79"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="80"/>
+    </row>
+    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>30</v>
       </c>
@@ -2704,31 +2704,31 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="74" t="s">
+      <c r="U11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="75"/>
-    </row>
-    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="80"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="80"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="80"/>
+    </row>
+    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
@@ -2763,31 +2763,31 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="81"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="81"/>
-    </row>
-    <row r="13" spans="1:41" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+    </row>
+    <row r="13" spans="1:41" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="69" t="s">
         <v>36</v>
@@ -2824,31 +2824,31 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="93" t="s">
+      <c r="U13" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-    </row>
-    <row r="14" spans="1:41" ht="58.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+    </row>
+    <row r="14" spans="1:41" ht="58.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65" t="s">
         <v>34</v>
       </c>
@@ -2885,31 +2885,31 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="93" t="s">
+      <c r="U14" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-    </row>
-    <row r="15" spans="1:41" ht="75.3" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+    </row>
+    <row r="15" spans="1:41" ht="75.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>40</v>
@@ -2946,31 +2946,31 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="93" t="s">
+      <c r="U15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="94"/>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="94"/>
-    </row>
-    <row r="16" spans="1:41" ht="42.3" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+    </row>
+    <row r="16" spans="1:41" ht="42.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65" t="s">
         <v>34</v>
       </c>
@@ -3007,31 +3007,31 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
-      <c r="U16" s="93" t="s">
+      <c r="U16" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-    </row>
-    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+    </row>
+    <row r="17" spans="1:41" ht="51.9" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="24"/>
@@ -3063,31 +3063,31 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="76" t="s">
+      <c r="U17" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-    </row>
-    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+    </row>
+    <row r="18" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -3107,9 +3107,11 @@
         <v>2</v>
       </c>
       <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="70"/>
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>45</v>
+      </c>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -3122,31 +3124,31 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="76" t="s">
+      <c r="U18" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-    </row>
-    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
+      <c r="AO18" s="96"/>
+    </row>
+    <row r="19" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="24"/>
@@ -3178,29 +3180,29 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="75"/>
-    </row>
-    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="U19" s="79"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="80"/>
+      <c r="AO19" s="80"/>
+    </row>
+    <row r="20" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="56" t="s">
         <v>30</v>
       </c>
@@ -3220,9 +3222,11 @@
         <v>2</v>
       </c>
       <c r="G20" s="31">
-        <v>0</v>
-      </c>
-      <c r="H20" s="70"/>
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>45</v>
+      </c>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -3235,29 +3239,29 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="75"/>
-    </row>
-    <row r="21" spans="1:41" ht="44.7" customHeight="1" x14ac:dyDescent="1.95">
+      <c r="U20" s="79"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="80"/>
+    </row>
+    <row r="21" spans="1:41" ht="44.75" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A21" s="56" t="s">
         <v>30</v>
       </c>
@@ -3277,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="31">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="24"/>
@@ -3292,31 +3296,31 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="74" t="s">
+      <c r="U21" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="75"/>
-      <c r="AO21" s="75"/>
-    </row>
-    <row r="22" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="80"/>
+    </row>
+    <row r="22" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="34"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -3338,29 +3342,29 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="75"/>
-    </row>
-    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U22" s="79"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="80"/>
+    </row>
+    <row r="23" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="34"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -3382,29 +3386,29 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="75"/>
-    </row>
-    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U23" s="79"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="80"/>
+    </row>
+    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="34"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -3426,29 +3430,29 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="75"/>
-      <c r="AO24" s="75"/>
-    </row>
-    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U24" s="79"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="80"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="80"/>
+      <c r="AO24" s="80"/>
+    </row>
+    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="34"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -3470,29 +3474,29 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="75"/>
-    </row>
-    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U25" s="79"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="80"/>
+    </row>
+    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="34"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -3514,29 +3518,29 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="75"/>
-    </row>
-    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U26" s="79"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+    </row>
+    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -3558,29 +3562,29 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="75"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="75"/>
-    </row>
-    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U27" s="79"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+    </row>
+    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -3602,29 +3606,29 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="75"/>
-    </row>
-    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U28" s="79"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+    </row>
+    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="34"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -3646,29 +3650,29 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="75"/>
-    </row>
-    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U29" s="79"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="80"/>
+    </row>
+    <row r="30" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="34"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -3690,29 +3694,29 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="75"/>
-    </row>
-    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="80"/>
+    </row>
+    <row r="31" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -3734,29 +3738,29 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="75"/>
-    </row>
-    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="80"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="80"/>
+      <c r="AN31" s="80"/>
+      <c r="AO31" s="80"/>
+    </row>
+    <row r="32" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="34"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -3778,29 +3782,29 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="75"/>
-    </row>
-    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="80"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="80"/>
+      <c r="AF32" s="80"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="80"/>
+      <c r="AJ32" s="80"/>
+      <c r="AK32" s="80"/>
+      <c r="AL32" s="80"/>
+      <c r="AM32" s="80"/>
+      <c r="AN32" s="80"/>
+      <c r="AO32" s="80"/>
+    </row>
+    <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="34"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -3822,29 +3826,29 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="75"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="75"/>
-    </row>
-    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="80"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="80"/>
+      <c r="AF33" s="80"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="80"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="80"/>
+      <c r="AN33" s="80"/>
+      <c r="AO33" s="80"/>
+    </row>
+    <row r="34" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="34"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -3866,29 +3870,29 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="75"/>
-    </row>
-    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="80"/>
+      <c r="AL34" s="80"/>
+      <c r="AM34" s="80"/>
+      <c r="AN34" s="80"/>
+      <c r="AO34" s="80"/>
+    </row>
+    <row r="35" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="34"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -3932,7 +3936,7 @@
       <c r="AN35" s="49"/>
       <c r="AO35" s="49"/>
     </row>
-    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -3978,6 +3982,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="U34:AO34"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="U32:AO32"/>
+    <mergeCell ref="U33:AO33"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="U18:AO18"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="U17:AO17"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="U13:AO13"/>
     <mergeCell ref="U14:AO14"/>
@@ -3987,33 +4018,6 @@
     <mergeCell ref="U7:AO7"/>
     <mergeCell ref="U8:AO8"/>
     <mergeCell ref="U9:AO9"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="U17:AO17"/>
-    <mergeCell ref="U18:AO18"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="U34:AO34"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="U32:AO32"/>
-    <mergeCell ref="U33:AO33"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:U7 I8:T34 I35:AO36">
     <cfRule type="expression" dxfId="33" priority="33">
@@ -4171,59 +4175,59 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
